--- a/Expecations from submissions- Updated.xlsx
+++ b/Expecations from submissions- Updated.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DSP Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Analytix\Git\Analytix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Project Expectations" sheetId="2" r:id="rId1"/>
@@ -726,19 +726,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="45.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="11" width="17.7109375" customWidth="1"/>
+    <col min="4" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -746,7 +746,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -777,12 +777,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -790,12 +790,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -803,7 +803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -811,12 +811,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>79</v>
       </c>
@@ -827,7 +827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -835,7 +835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>28</v>
       </c>
@@ -843,7 +843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>30</v>
       </c>
@@ -851,7 +851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>31</v>
       </c>
@@ -859,7 +859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -867,7 +867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>69</v>
       </c>
@@ -875,7 +875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -883,7 +883,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -891,7 +891,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -899,17 +899,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="7"/>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="K22" s="13"/>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="7"/>
       <c r="D23" s="12" t="s">
         <v>14</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
         <v>11</v>
@@ -974,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1000,7 +1000,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="4" t="s">
         <v>41</v>
       </c>
@@ -1052,17 +1052,17 @@
       <c r="J30" s="5"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>73</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>52</v>
       </c>
@@ -1084,27 +1084,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1112,27 +1112,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1140,27 +1140,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>15</v>
       </c>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>66</v>
       </c>
